--- a/static/upload/marks.xlsx
+++ b/static/upload/marks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krish\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mustafa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9E9CB2-91B6-4B68-94D7-21C034708D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA744E2A-1C0D-4BB1-96EC-8A1778BB5F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,7 +231,7 @@
     <t>B</t>
   </si>
   <si>
-    <t>Reg no</t>
+    <t>Regno</t>
   </si>
 </sst>
 </file>
@@ -581,9 +581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N282"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
